--- a/file_export/bo_nhiem/Danh sach bo nhiem can bo.xlsx
+++ b/file_export/bo_nhiem/Danh sach bo nhiem can bo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG 
 </t>
@@ -95,6 +95,27 @@
   </si>
   <si>
     <t>5 năm</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>13-02-1993</t>
+  </si>
+  <si>
+    <t>Trung Cấp</t>
+  </si>
+  <si>
+    <t>Trưởng ban trung ương phòng chống tham nhũng</t>
+  </si>
+  <si>
+    <t>14-05-2005</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Hai</t>
+  </si>
+  <si>
+    <t>Mẫn Việt Dũng</t>
   </si>
 </sst>
 </file>
@@ -117,33 +138,6 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -153,7 +147,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -181,6 +175,33 @@
       <strike val="0"/>
       <u val="single"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -225,78 +246,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="14" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="6" numFmtId="14" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,161 +621,233 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="30.75" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" hidden="true" customWidth="true" style="7"/>
-    <col min="2" max="2" width="11" hidden="true" customWidth="true" style="8"/>
-    <col min="3" max="3" width="4.28515625" customWidth="true" style="17"/>
-    <col min="4" max="4" width="24.7109375" customWidth="true" style="16"/>
-    <col min="5" max="5" width="9.140625" customWidth="true" style="16"/>
-    <col min="6" max="6" width="18.42578125" customWidth="true" style="16"/>
-    <col min="7" max="7" width="12.85546875" customWidth="true" style="16"/>
-    <col min="8" max="8" width="35.5703125" customWidth="true" style="16"/>
-    <col min="9" max="9" width="11.140625" customWidth="true" style="17"/>
-    <col min="10" max="10" width="11.140625" customWidth="true" style="17"/>
-    <col min="11" max="11" width="9" style="7"/>
+    <col min="1" max="1" width="8.42578125" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="11" hidden="true" customWidth="true" style="10"/>
+    <col min="3" max="3" width="4.28515625" customWidth="true" style="12"/>
+    <col min="4" max="4" width="24.7109375" customWidth="true" style="11"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="11"/>
+    <col min="6" max="6" width="18.42578125" customWidth="true" style="11"/>
+    <col min="7" max="7" width="12.85546875" customWidth="true" style="11"/>
+    <col min="8" max="8" width="35.5703125" customWidth="true" style="11"/>
+    <col min="9" max="9" width="11.140625" customWidth="true" style="12"/>
+    <col min="10" max="10" width="11.140625" customWidth="true" style="12"/>
+    <col min="11" max="11" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="30.75">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="21" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="30">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="30.75">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="23">
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="13">
         <v>2014</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="30.75">
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" customHeight="1" ht="39.75" s="10" customFormat="1">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" customHeight="1" ht="39.75" s="16" customFormat="1">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customHeight="1" ht="14.25" s="11" customFormat="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="15" t="s">
+    <row r="6" spans="1:11" customHeight="1" ht="14.25" s="19" customFormat="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="5">
         <v>6</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customHeight="1" ht="38.25" hidden="true" s="12" customFormat="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+    <row r="7" spans="1:11" customHeight="1" ht="38.25" hidden="true" s="23" customFormat="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="13">
+      <c r="C8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="C9" s="22">
+        <v>2</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="C10" s="22">
+        <v>3</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="22">
+        <v>4</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>25</v>
       </c>
     </row>

--- a/file_export/bo_nhiem/Danh sach bo nhiem can bo.xlsx
+++ b/file_export/bo_nhiem/Danh sach bo nhiem can bo.xlsx
@@ -15,107 +15,371 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
-  <si>
-    <t xml:space="preserve">BAN CHẤP HÀNH TRUNG ƯƠNG 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ĐOÀN TNCS HỒ CHÍ MINH
+    <t>BỘ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TRƯỜNG ĐẠI HỌC CÔNG NGHỆ GIAO THÔNG VẬN TẢI</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP DANH SÁCH CÁN BỘ ĐẾN THỜI HẠN BỔ NHIỆM LẠI NĂM 2013</t>
+  </si>
+  <si>
+    <t>TỔNG HỢP DANH SÁCH CÁN BỘ ĐẾN THỜI HẠN BỔ NHIỆM LẠI NĂM</t>
+  </si>
+  <si>
+    <t>Số QĐ</t>
+  </si>
+  <si>
+    <t>Ngày ra QĐ</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Họ và tên</t>
+  </si>
+  <si>
+    <t>Ngày, tháng, năm sinh</t>
+  </si>
+  <si>
+    <t>Trình độ chuyên môn</t>
+  </si>
+  <si>
+    <t>Lý luận chính trị</t>
+  </si>
+  <si>
+    <t>Chức danh được bổ nhiệm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày được bổ nhiệm </t>
+  </si>
+  <si>
+    <t>Thời hạn bổ nhiệm lại</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Tô Vân Hòa</t>
+  </si>
+  <si>
+    <t>30-10-1980</t>
+  </si>
+  <si>
+    <t>Trung cấp</t>
+  </si>
+  <si>
+    <t>Trưởng bộ môn</t>
+  </si>
+  <si>
+    <t>05-09-2011</t>
+  </si>
+  <si>
+    <t>5 năm</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Hồng Lê</t>
+  </si>
+  <si>
+    <t>06-11-1969</t>
+  </si>
+  <si>
+    <t>Cao cấp</t>
+  </si>
+  <si>
+    <t>Phó Trưởng khoa, phụ trách khoa</t>
+  </si>
+  <si>
+    <t>23-08-2011</t>
+  </si>
+  <si>
+    <t>Đỗ Quang Hưng</t>
+  </si>
+  <si>
+    <t>21-10-1979</t>
+  </si>
+  <si>
+    <t>Phó Trưởng khoa</t>
+  </si>
+  <si>
+    <t>Trần Hà Thanh</t>
+  </si>
+  <si>
+    <t>12-10-1969</t>
+  </si>
+  <si>
+    <t>Bí thư chi bộ Khoa CNTT;  Phó trưởng khoa-Phụ trách khoa Công nghệ thông tin kiêm Giám đốc trung tâm Công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>01-01-1970</t>
+  </si>
+  <si>
+    <t>Lê Thị Hoa</t>
+  </si>
+  <si>
+    <t>28-03-1963</t>
+  </si>
+  <si>
+    <t>Sơ cấp</t>
+  </si>
+  <si>
+    <t>Phó Trưởng bộ môn, phụ trách bộ môn</t>
+  </si>
+  <si>
+    <t>30-09-2005</t>
+  </si>
+  <si>
+    <t>Phạm Đức Tấn</t>
+  </si>
+  <si>
+    <t>27-12-1965</t>
+  </si>
+  <si>
+    <t>Dương Xuân Kỷ</t>
+  </si>
+  <si>
+    <t>15-05-1959</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Lâm</t>
+  </si>
+  <si>
+    <t>16-09-1966</t>
+  </si>
+  <si>
+    <t>Trưởng phòng</t>
+  </si>
+  <si>
+    <t>Nguyễn Bích Ngọc</t>
+  </si>
+  <si>
+    <t>16-10-1987</t>
+  </si>
+  <si>
+    <t>30-03-1991</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Cẩm Thạch</t>
+  </si>
+  <si>
+    <t>30-08-1980</t>
+  </si>
+  <si>
+    <t>Đào Văn Toàn</t>
+  </si>
+  <si>
+    <t>15-10-1960</t>
+  </si>
+  <si>
+    <t>Giám đốc</t>
+  </si>
+  <si>
+    <t>23-08-1960</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nhu</t>
+  </si>
+  <si>
+    <t>17-08-1984</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Anh</t>
+  </si>
+  <si>
+    <t>04-09-1967</t>
+  </si>
+  <si>
+    <t>Trưởng khoa</t>
+  </si>
+  <si>
+    <t>27-03-2012</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Tự</t>
+  </si>
+  <si>
+    <t>10-02-1958</t>
+  </si>
+  <si>
+    <t>Sơ cấp và tương đương</t>
+  </si>
+  <si>
+    <t>Tổ trưởng</t>
+  </si>
+  <si>
+    <t>Lê Thu Sao</t>
+  </si>
+  <si>
+    <t>20-11-1971</t>
+  </si>
+  <si>
+    <t>Phạm Tuấn Anh</t>
+  </si>
+  <si>
+    <t>30-04-1983</t>
+  </si>
+  <si>
+    <t>01-09-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÊ THỊ HÀ					</t>
+  </si>
+  <si>
+    <t>13-12-1969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Trưởng bộ môn   					</t>
+  </si>
+  <si>
+    <t>09-05-2011</t>
+  </si>
+  <si>
+    <t>Vũ Thành Hưng</t>
+  </si>
+  <si>
+    <t>26-02-1980</t>
+  </si>
+  <si>
+    <t>Phó Trưởng bộ môn, phụ trách bộ môn Công trình</t>
+  </si>
+  <si>
+    <t>Lê Thị Hồng Điệp</t>
+  </si>
+  <si>
+    <t>17-10-1966</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Tài chính kế toán Cơ sở Đào tạo Thái Nguyên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN TIẾN DŨNG					</t>
+  </si>
+  <si>
+    <t>18-03-1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Trưởng khoa 					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGUYỄN VĂN CHÓT					</t>
+  </si>
+  <si>
+    <t>12-10-1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó Giám Đốc  					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BÙI THỊ HƯƠNG SƠN					</t>
+  </si>
+  <si>
+    <t>28-10-1975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó trưởng phòng					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRỊNH THỊ THU HẰNG					</t>
+  </si>
+  <si>
+    <t>04-09-1971</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THU HIỀN</t>
+  </si>
+  <si>
+    <t>01-05-1984</t>
+  </si>
+  <si>
+    <t>Giảng viên</t>
+  </si>
+  <si>
+    <t>22-09-2009</t>
+  </si>
+  <si>
+    <t>LÊ THANH HẢI</t>
+  </si>
+  <si>
+    <t>01-12-1986</t>
+  </si>
+  <si>
+    <t>Chuyên viên</t>
+  </si>
+  <si>
+    <t>15-10-2009</t>
+  </si>
+  <si>
+    <t>ĐẶNG AN DƯƠNG</t>
+  </si>
+  <si>
+    <t>30-10-1957</t>
+  </si>
+  <si>
+    <t>Chi ủy viên chi bộ Khoa Cơ khí,Tổ trưởng tổ môn</t>
+  </si>
+  <si>
+    <t>01-09-1978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐINH THÀNH TRUNG					</t>
+  </si>
+  <si>
+    <t>08-03-1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổ phó, phụ trách tổ					</t>
+  </si>
+  <si>
+    <t>03-01-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lê Văn Dậu					</t>
+  </si>
+  <si>
+    <t>06-10-1957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phó trưởng phòng 					</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LƯƠNG THỊ XUÂN HƯỜNG					</t>
+  </si>
+  <si>
+    <t>21-12-1963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổ trưởng					
 </t>
   </si>
   <si>
-    <t>***</t>
-  </si>
-  <si>
-    <t>TỔNG HỢP DANH SÁCH CÁN BỘ ĐẾN THỜI HẠN BỔ NHIỆM LẠI NĂM 2013</t>
-  </si>
-  <si>
-    <t>TỔNG HỢP DANH SÁCH CÁN BỘ ĐẾN THỜI HẠN BỔ NHIỆM LẠI NĂM</t>
-  </si>
-  <si>
-    <t>Số QĐ</t>
-  </si>
-  <si>
-    <t>Ngày ra QĐ</t>
-  </si>
-  <si>
-    <t>TT</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Ngày, tháng, năm sinh</t>
-  </si>
-  <si>
-    <t>Trình độ chuyên môn</t>
-  </si>
-  <si>
-    <t>Lý luận chính trị</t>
-  </si>
-  <si>
-    <t>Chức danh được bổ nhiệm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày được bổ nhiệm </t>
-  </si>
-  <si>
-    <t>Thời hạn bổ nhiệm lại</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Lê Khánh Trình</t>
-  </si>
-  <si>
-    <t>15-12-1945</t>
-  </si>
-  <si>
-    <t>Cao cấp</t>
-  </si>
-  <si>
-    <t>Chức vụ</t>
-  </si>
-  <si>
-    <t>22-02-2009</t>
-  </si>
-  <si>
-    <t>5 năm</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Nam</t>
-  </si>
-  <si>
-    <t>13-02-1993</t>
-  </si>
-  <si>
-    <t>Trung Cấp</t>
-  </si>
-  <si>
-    <t>Trưởng ban trung ương phòng chống tham nhũng</t>
-  </si>
-  <si>
-    <t>14-05-2005</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Hai</t>
-  </si>
-  <si>
-    <t>Mẫn Việt Dũng</t>
+    <t>01-08-2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẦN TUẤN ANH					</t>
+  </si>
+  <si>
+    <t>23-09-1969</t>
+  </si>
+  <si>
+    <t>Tổ phó tổ Xe máy - Bảo vệ</t>
   </si>
 </sst>
 </file>
@@ -123,7 +387,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -161,24 +425,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="single"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
@@ -202,6 +448,33 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
@@ -246,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -265,61 +538,67 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="14" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="14" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="14" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="49" fillId="3" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="49" fillId="3" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -621,73 +900,77 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="30.75" defaultColWidth="9" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="11" hidden="true" customWidth="true" style="10"/>
-    <col min="3" max="3" width="4.28515625" customWidth="true" style="12"/>
-    <col min="4" max="4" width="24.7109375" customWidth="true" style="11"/>
-    <col min="5" max="5" width="9.140625" customWidth="true" style="11"/>
-    <col min="6" max="6" width="18.42578125" customWidth="true" style="11"/>
-    <col min="7" max="7" width="12.85546875" customWidth="true" style="11"/>
-    <col min="8" max="8" width="35.5703125" customWidth="true" style="11"/>
-    <col min="9" max="9" width="11.140625" customWidth="true" style="12"/>
-    <col min="10" max="10" width="11.140625" customWidth="true" style="12"/>
-    <col min="11" max="11" width="9" style="9"/>
+    <col min="1" max="1" width="8.42578125" hidden="true" customWidth="true" style="6"/>
+    <col min="2" max="2" width="11" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="4.28515625" customWidth="true" style="9"/>
+    <col min="4" max="4" width="24.7109375" customWidth="true" style="8"/>
+    <col min="5" max="5" width="9.140625" customWidth="true" style="8"/>
+    <col min="6" max="6" width="18.42578125" customWidth="true" style="8"/>
+    <col min="7" max="7" width="12.85546875" customWidth="true" style="8"/>
+    <col min="8" max="8" width="35.5703125" customWidth="true" style="8"/>
+    <col min="9" max="9" width="11.140625" customWidth="true" style="9"/>
+    <col min="10" max="10" width="11.140625" customWidth="true" style="9"/>
+    <col min="11" max="11" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" customHeight="1" ht="30.75">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" customHeight="1" ht="30">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" customHeight="1" ht="30">
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="30.75">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="13">
-        <v>2014</v>
-      </c>
-      <c r="J3" s="11"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21">
+        <v>2017</v>
+      </c>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:11" customHeight="1" ht="30.75">
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" customHeight="1" ht="39.75" s="16" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" customHeight="1" ht="39.75" s="12" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -715,9 +998,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" customHeight="1" ht="14.25" s="19" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:11" customHeight="1" ht="14.25" s="15" customFormat="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
@@ -743,121 +1026,736 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customHeight="1" ht="38.25" hidden="true" s="23" customFormat="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+    <row r="7" spans="1:11" customHeight="1" ht="38.25" hidden="true" s="19" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="C8" s="22">
+      <c r="C8" s="18">
         <v>1</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="C9" s="22">
+      <c r="C9" s="18">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="C10" s="22">
+      <c r="C10" s="18">
         <v>3</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="C11" s="18">
+        <v>4</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12" s="18">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" s="18">
+        <v>6</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="C14" s="18">
+        <v>7</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="C15" s="18">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="C16" s="18">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="C17" s="18">
+        <v>10</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="C18" s="18">
+        <v>11</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19" s="18">
+        <v>12</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="C20" s="18">
+        <v>13</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" s="18">
+        <v>14</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="C22" s="18">
+        <v>15</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" s="18">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" s="18">
+        <v>17</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="18">
+        <v>18</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="18">
+        <v>19</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="C27" s="18">
+        <v>20</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="18">
+        <v>21</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="C29" s="18">
+        <v>22</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="C30" s="18">
+        <v>23</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="C31" s="18">
+        <v>24</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="18">
+        <v>25</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="C33" s="18">
+        <v>26</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="C34" s="18">
         <v>27</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20" t="s">
+      <c r="D34" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="C35" s="18">
         <v>28</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="D35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="C36" s="18">
         <v>29</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="D36" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="C37" s="18">
         <v>30</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="C11" s="22">
-        <v>4</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="D37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="J37" s="18" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="C3:H3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:J3"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0.35433070866142" right="0.23622047244094" top="0.39370078740157" bottom="0.35433070866142" header="0.31496062992126" footer="0.31496062992126"/>
